--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H2">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I2">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J2">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N2">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q2">
-        <v>11.70361781766489</v>
+        <v>27.65584090876444</v>
       </c>
       <c r="R2">
-        <v>105.332560358984</v>
+        <v>248.90256817888</v>
       </c>
       <c r="S2">
-        <v>0.00157331367460155</v>
+        <v>0.003667377844646484</v>
       </c>
       <c r="T2">
-        <v>0.001573313674601551</v>
+        <v>0.003667377844646483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H3">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I3">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J3">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q3">
-        <v>54.41553914365421</v>
+        <v>100.3987999040351</v>
       </c>
       <c r="R3">
-        <v>489.7398522928879</v>
+        <v>903.589199136316</v>
       </c>
       <c r="S3">
-        <v>0.007315063869934926</v>
+        <v>0.01331365535446319</v>
       </c>
       <c r="T3">
-        <v>0.007315063869934932</v>
+        <v>0.01331365535446319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H4">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I4">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J4">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N4">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O4">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P4">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q4">
-        <v>116.4998217389458</v>
+        <v>199.1660300856209</v>
       </c>
       <c r="R4">
-        <v>1048.498395650512</v>
+        <v>1792.494270770588</v>
       </c>
       <c r="S4">
-        <v>0.01566103451822187</v>
+        <v>0.02641095197762451</v>
       </c>
       <c r="T4">
-        <v>0.01566103451822188</v>
+        <v>0.02641095197762451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H5">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I5">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J5">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N5">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q5">
-        <v>17.60451335969333</v>
+        <v>21.47594405315333</v>
       </c>
       <c r="R5">
-        <v>158.44062023724</v>
+        <v>193.28349647838</v>
       </c>
       <c r="S5">
-        <v>0.00236656921261612</v>
+        <v>0.002847875849200517</v>
       </c>
       <c r="T5">
-        <v>0.002366569212616122</v>
+        <v>0.002847875849200517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H6">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I6">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J6">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N6">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q6">
-        <v>23.59564377894577</v>
+        <v>44.50852027799956</v>
       </c>
       <c r="R6">
-        <v>212.360794010512</v>
+        <v>400.576682501996</v>
       </c>
       <c r="S6">
-        <v>0.003171954996890803</v>
+        <v>0.005902173132396242</v>
       </c>
       <c r="T6">
-        <v>0.003171954996890805</v>
+        <v>0.00590217313239624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.317101333333333</v>
+        <v>4.275142666666667</v>
       </c>
       <c r="H7">
-        <v>6.951303999999999</v>
+        <v>12.825428</v>
       </c>
       <c r="I7">
-        <v>0.04701330234310853</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="J7">
-        <v>0.04701330234310856</v>
+        <v>0.08639116705290817</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N7">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q7">
-        <v>125.9049731245671</v>
+        <v>258.2740613919107</v>
       </c>
       <c r="R7">
-        <v>1133.144758121104</v>
+        <v>2324.466552527196</v>
       </c>
       <c r="S7">
-        <v>0.01692536607084327</v>
+        <v>0.03424913289457723</v>
       </c>
       <c r="T7">
-        <v>0.01692536607084328</v>
+        <v>0.03424913289457723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>64.617908</v>
       </c>
       <c r="I8">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J8">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N8">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q8">
-        <v>108.7944505676964</v>
+        <v>139.3374617599644</v>
       </c>
       <c r="R8">
-        <v>979.1500551092679</v>
+        <v>1254.03715583968</v>
       </c>
       <c r="S8">
-        <v>0.01462520388700378</v>
+        <v>0.01847722229360337</v>
       </c>
       <c r="T8">
-        <v>0.01462520388700378</v>
+        <v>0.01847722229360336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>64.617908</v>
       </c>
       <c r="I9">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J9">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q9">
         <v>505.8357830638751</v>
@@ -1013,10 +1013,10 @@
         <v>4552.522047574876</v>
       </c>
       <c r="S9">
-        <v>0.06799934575751242</v>
+        <v>0.06707772690614379</v>
       </c>
       <c r="T9">
-        <v>0.06799934575751246</v>
+        <v>0.06707772690614378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>64.617908</v>
       </c>
       <c r="I10">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J10">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N10">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O10">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P10">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q10">
-        <v>1082.958645333825</v>
+        <v>1003.451285118741</v>
       </c>
       <c r="R10">
-        <v>9746.627808004425</v>
+        <v>9031.061566068667</v>
       </c>
       <c r="S10">
-        <v>0.145581791226982</v>
+        <v>0.1330653811383572</v>
       </c>
       <c r="T10">
-        <v>0.1455817912269821</v>
+        <v>0.1330653811383572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>64.617908</v>
       </c>
       <c r="I11">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J11">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N11">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q11">
-        <v>163.6479752088867</v>
+        <v>108.2015022843533</v>
       </c>
       <c r="R11">
-        <v>1472.83177687998</v>
+        <v>973.81352055918</v>
       </c>
       <c r="S11">
-        <v>0.02199914601008112</v>
+        <v>0.01434835388098244</v>
       </c>
       <c r="T11">
-        <v>0.02199914601008113</v>
+        <v>0.01434835388098244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>64.617908</v>
       </c>
       <c r="I12">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J12">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N12">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q12">
-        <v>219.3403049138249</v>
+        <v>224.2457303210396</v>
       </c>
       <c r="R12">
-        <v>1974.062744224424</v>
+        <v>2018.211572889356</v>
       </c>
       <c r="S12">
-        <v>0.02948584843494548</v>
+        <v>0.02973671369635791</v>
       </c>
       <c r="T12">
-        <v>0.02948584843494549</v>
+        <v>0.0297367136963579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>64.617908</v>
       </c>
       <c r="I13">
-        <v>0.4370260954754924</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="J13">
-        <v>0.4370260954754926</v>
+        <v>0.4352616134633052</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N13">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q13">
-        <v>1170.387019486668</v>
+        <v>1301.253224282951</v>
       </c>
       <c r="R13">
-        <v>10533.48317538001</v>
+        <v>11711.27901854655</v>
       </c>
       <c r="S13">
-        <v>0.1573347601589676</v>
+        <v>0.1725562155478605</v>
       </c>
       <c r="T13">
-        <v>0.1573347601589677</v>
+        <v>0.1725562155478605</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H14">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I14">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J14">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N14">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q14">
-        <v>0.2891227836536667</v>
+        <v>0.4319665846666667</v>
       </c>
       <c r="R14">
-        <v>2.602105052883</v>
+        <v>3.887699261999999</v>
       </c>
       <c r="S14">
-        <v>3.886668517786045E-05</v>
+        <v>5.728210136369773E-05</v>
       </c>
       <c r="T14">
-        <v>3.886668517786046E-05</v>
+        <v>5.728210136369771E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H15">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I15">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J15">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q15">
-        <v>1.344265713075667</v>
+        <v>1.568165178641667</v>
       </c>
       <c r="R15">
-        <v>12.098391417681</v>
+        <v>14.113486607775</v>
       </c>
       <c r="S15">
-        <v>0.0001807092184339565</v>
+        <v>0.0002079507996834756</v>
       </c>
       <c r="T15">
-        <v>0.0001807092184339566</v>
+        <v>0.0002079507996834756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H16">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I16">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J16">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N16">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O16">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P16">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q16">
-        <v>2.877977842499333</v>
+        <v>3.110846279508333</v>
       </c>
       <c r="R16">
-        <v>25.901800582494</v>
+        <v>27.997616515575</v>
       </c>
       <c r="S16">
-        <v>0.0003868856592335214</v>
+        <v>0.0004125222140670573</v>
       </c>
       <c r="T16">
-        <v>0.0003868856592335216</v>
+        <v>0.0004125222140670572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H17">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I17">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J17">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N17">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q17">
-        <v>0.434896797445</v>
+        <v>0.335440539875</v>
       </c>
       <c r="R17">
-        <v>3.914071177005</v>
+        <v>3.018964858875</v>
       </c>
       <c r="S17">
-        <v>5.846304015736877E-05</v>
+        <v>4.448200321198589E-05</v>
       </c>
       <c r="T17">
-        <v>5.84630401573688E-05</v>
+        <v>4.448200321198588E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H18">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I18">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J18">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N18">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q18">
-        <v>0.5828999474993335</v>
+        <v>0.6951946808083334</v>
       </c>
       <c r="R18">
-        <v>5.246099527494001</v>
+        <v>6.256752127275</v>
       </c>
       <c r="S18">
-        <v>7.835905722596501E-05</v>
+        <v>9.218817748205185E-05</v>
       </c>
       <c r="T18">
-        <v>7.835905722596506E-05</v>
+        <v>9.218817748205182E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05724100000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="H19">
-        <v>0.171723</v>
+        <v>0.200325</v>
       </c>
       <c r="I19">
-        <v>0.0011614029998207</v>
+        <v>0.001349374893366041</v>
       </c>
       <c r="J19">
-        <v>0.0011614029998207</v>
+        <v>0.00134937489336604</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N19">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q19">
-        <v>3.110319977355334</v>
+        <v>4.034076004975</v>
       </c>
       <c r="R19">
-        <v>27.992879796198</v>
+        <v>36.306684044775</v>
       </c>
       <c r="S19">
-        <v>0.0004181193395920275</v>
+        <v>0.0005349495975577724</v>
       </c>
       <c r="T19">
-        <v>0.0004181193395920277</v>
+        <v>0.0005349495975577722</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H20">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I20">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J20">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N20">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q20">
-        <v>127.607778510772</v>
+        <v>152.2240584011911</v>
       </c>
       <c r="R20">
-        <v>1148.470006596948</v>
+        <v>1370.01652561072</v>
       </c>
       <c r="S20">
-        <v>0.01715427366514781</v>
+        <v>0.0201860844168286</v>
       </c>
       <c r="T20">
-        <v>0.01715427366514781</v>
+        <v>0.02018608441682859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H21">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I21">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J21">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q21">
-        <v>593.307657065404</v>
+        <v>552.6179019621837</v>
       </c>
       <c r="R21">
-        <v>5339.768913588636</v>
+        <v>4973.561117659654</v>
       </c>
       <c r="S21">
-        <v>0.07975816236052136</v>
+        <v>0.07328139675437839</v>
       </c>
       <c r="T21">
-        <v>0.07975816236052141</v>
+        <v>0.07328139675437838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H22">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I22">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J22">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N22">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O22">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P22">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q22">
-        <v>1270.229742684296</v>
+        <v>1096.25527190818</v>
       </c>
       <c r="R22">
-        <v>11432.06768415866</v>
+        <v>9866.297447173622</v>
       </c>
       <c r="S22">
-        <v>0.1707565861416301</v>
+        <v>0.1453719056866162</v>
       </c>
       <c r="T22">
-        <v>0.1707565861416302</v>
+        <v>0.1453719056866162</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H23">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I23">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J23">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N23">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q23">
-        <v>191.94687288942</v>
+        <v>118.2084960841633</v>
       </c>
       <c r="R23">
-        <v>1727.52185600478</v>
+        <v>1063.87646475747</v>
       </c>
       <c r="S23">
-        <v>0.02580335795467591</v>
+        <v>0.01567535845386844</v>
       </c>
       <c r="T23">
-        <v>0.02580335795467592</v>
+        <v>0.01567535845386844</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H24">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I24">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J24">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N24">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q24">
-        <v>257.269823064296</v>
+        <v>244.9850508071749</v>
       </c>
       <c r="R24">
-        <v>2315.428407578664</v>
+        <v>2204.865457264574</v>
       </c>
       <c r="S24">
-        <v>0.03458470167049058</v>
+        <v>0.03248690757817807</v>
       </c>
       <c r="T24">
-        <v>0.03458470167049059</v>
+        <v>0.03248690757817806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.263996</v>
+        <v>23.53136066666667</v>
       </c>
       <c r="H25">
-        <v>75.791988</v>
+        <v>70.594082</v>
       </c>
       <c r="I25">
-        <v>0.5125990241585254</v>
+        <v>0.4755166947261876</v>
       </c>
       <c r="J25">
-        <v>0.5125990241585257</v>
+        <v>0.4755166947261875</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N25">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q25">
-        <v>1372.776706672232</v>
+        <v>1421.599362483153</v>
       </c>
       <c r="R25">
-        <v>12354.99036005009</v>
+        <v>12794.39426234837</v>
       </c>
       <c r="S25">
-        <v>0.1845419423660597</v>
+        <v>0.1885150418363179</v>
       </c>
       <c r="T25">
-        <v>0.1845419423660598</v>
+        <v>0.1885150418363178</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H26">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I26">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J26">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N26">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q26">
-        <v>0.1394843214628889</v>
+        <v>0.4082448105599999</v>
       </c>
       <c r="R26">
-        <v>1.255358893166</v>
+        <v>3.674203295039999</v>
       </c>
       <c r="S26">
-        <v>1.875083361136846E-05</v>
+        <v>5.41364111248257E-05</v>
       </c>
       <c r="T26">
-        <v>1.875083361136847E-05</v>
+        <v>5.413641112482568E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H27">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I27">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J27">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q27">
-        <v>0.6485272052402222</v>
+        <v>1.482048193092</v>
       </c>
       <c r="R27">
-        <v>5.836744847162</v>
+        <v>13.338433737828</v>
       </c>
       <c r="S27">
-        <v>8.718130891249024E-05</v>
+        <v>0.0001965310230838604</v>
       </c>
       <c r="T27">
-        <v>8.718130891249029E-05</v>
+        <v>0.0001965310230838604</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H28">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I28">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J28">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N28">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O28">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P28">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q28">
-        <v>1.388450890909778</v>
+        <v>2.940011785956</v>
       </c>
       <c r="R28">
-        <v>12.496058018188</v>
+        <v>26.460106073604</v>
       </c>
       <c r="S28">
-        <v>0.0001866490180398683</v>
+        <v>0.00038986824238628</v>
       </c>
       <c r="T28">
-        <v>0.0001866490180398684</v>
+        <v>0.00038986824238628</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H29">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I29">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J29">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N29">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q29">
-        <v>0.2098114992233333</v>
+        <v>0.31701956706</v>
       </c>
       <c r="R29">
-        <v>1.88830349301</v>
+        <v>2.85317610354</v>
       </c>
       <c r="S29">
-        <v>2.820489407288117E-05</v>
+        <v>4.203924011534264E-05</v>
       </c>
       <c r="T29">
-        <v>2.820489407288118E-05</v>
+        <v>4.203924011534264E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H30">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I30">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J30">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N30">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q30">
-        <v>0.2812141009097778</v>
+        <v>0.657017535252</v>
       </c>
       <c r="R30">
-        <v>2.530926908188</v>
+        <v>5.913157817268</v>
       </c>
       <c r="S30">
-        <v>3.780352343566265E-05</v>
+        <v>8.712559347865709E-05</v>
       </c>
       <c r="T30">
-        <v>3.780352343566267E-05</v>
+        <v>8.712559347865706E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.02761533333333334</v>
+        <v>0.063108</v>
       </c>
       <c r="H31">
-        <v>0.082846</v>
+        <v>0.189324</v>
       </c>
       <c r="I31">
-        <v>0.0005603069648395712</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="J31">
-        <v>0.0005603069648395714</v>
+        <v>0.001275272943025744</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N31">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q31">
-        <v>1.500541970755111</v>
+        <v>3.812541647652</v>
       </c>
       <c r="R31">
-        <v>13.504877736796</v>
+        <v>34.312874828868</v>
       </c>
       <c r="S31">
-        <v>0.0002017173867673003</v>
+        <v>0.0005055724328367787</v>
       </c>
       <c r="T31">
-        <v>0.0002017173867673004</v>
+        <v>0.0005055724328367785</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H32">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I32">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J32">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N32">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q32">
-        <v>0.4082331610031111</v>
+        <v>0.06590603616</v>
       </c>
       <c r="R32">
-        <v>3.674098449028</v>
+        <v>0.5931543254399999</v>
       </c>
       <c r="S32">
-        <v>5.487865586849441E-05</v>
+        <v>8.739648801098501E-06</v>
       </c>
       <c r="T32">
-        <v>5.487865586849443E-05</v>
+        <v>8.739648801098499E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H33">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I33">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J33">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q33">
-        <v>1.898065017021778</v>
+        <v>0.239258208012</v>
       </c>
       <c r="R33">
-        <v>17.082585153196</v>
+        <v>2.153323872108</v>
       </c>
       <c r="S33">
-        <v>0.0002551562852689771</v>
+        <v>3.17274840460539E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002551562852689773</v>
+        <v>3.17274840460539E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H34">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I34">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J34">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N34">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O34">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P34">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q34">
-        <v>4.063622994678222</v>
+        <v>0.474628257516</v>
       </c>
       <c r="R34">
-        <v>36.572606952104</v>
+        <v>4.271654317644</v>
       </c>
       <c r="S34">
-        <v>0.0005462715653874755</v>
+        <v>6.293936828027225E-05</v>
       </c>
       <c r="T34">
-        <v>0.0005462715653874757</v>
+        <v>6.293936828027225E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H35">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I35">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J35">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N35">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q35">
-        <v>0.6140619292866667</v>
+        <v>0.05117885766</v>
       </c>
       <c r="R35">
-        <v>5.526557363579999</v>
+        <v>0.46060971894</v>
       </c>
       <c r="S35">
-        <v>8.254815266957186E-05</v>
+        <v>6.786711324952635E-06</v>
       </c>
       <c r="T35">
-        <v>8.25481526695719E-05</v>
+        <v>6.786711324952634E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H36">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I36">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J36">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N36">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q36">
-        <v>0.8230381746782223</v>
+        <v>0.106067291772</v>
       </c>
       <c r="R36">
-        <v>7.407343572104</v>
+        <v>0.954605625948</v>
       </c>
       <c r="S36">
-        <v>0.0001106407638316666</v>
+        <v>1.406534110351395E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001106407638316666</v>
+        <v>1.406534110351395E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.08082266666666667</v>
+        <v>0.010188</v>
       </c>
       <c r="H37">
-        <v>0.242468</v>
+        <v>0.030564</v>
       </c>
       <c r="I37">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072366</v>
       </c>
       <c r="J37">
-        <v>0.001639868058213084</v>
+        <v>0.0002058769212072365</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N37">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q37">
-        <v>4.391683491840888</v>
+        <v>0.615487328172</v>
       </c>
       <c r="R37">
-        <v>39.52515142656799</v>
+        <v>5.539385953548</v>
       </c>
       <c r="S37">
-        <v>0.0005903726351868981</v>
+        <v>8.161836765134534E-05</v>
       </c>
       <c r="T37">
-        <v>0.0005903726351868984</v>
+        <v>8.161836765134531E-05</v>
       </c>
     </row>
   </sheetData>
